--- a/AttendanceManagement/wwwroot/ExcelTemplates/Cost Centre Master.xlsx
+++ b/AttendanceManagement/wwwroot/ExcelTemplates/Cost Centre Master.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92857369-3C0C-4EC4-AADE-ACECCC1E59BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67AD43A-473F-4FC6-9838-B54AD58D8EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>ShortName</t>
+  </si>
+  <si>
+    <t>IsActive</t>
   </si>
 </sst>
 </file>
@@ -72,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,12 +423,15 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
